--- a/data/output/FV2310_FV2304/MSCONS/13013.xlsx
+++ b/data/output/FV2310_FV2304/MSCONS/13013.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="231">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="231">
+  <si>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>Nutzdaten-Kopfsegment</t>
@@ -796,6 +796,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U102" totalsRowShown="0">
+  <autoFilter ref="A1:U102"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2304"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="3" name="Segment_FV2304"/>
+    <tableColumn id="4" name="Datenelement_FV2304"/>
+    <tableColumn id="5" name="Segment ID_FV2304"/>
+    <tableColumn id="6" name="Code_FV2304"/>
+    <tableColumn id="7" name="Qualifier_FV2304"/>
+    <tableColumn id="8" name="Beschreibung_FV2304"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="10" name="Bedingung_FV2304"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2310"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="14" name="Segment_FV2310"/>
+    <tableColumn id="15" name="Datenelement_FV2310"/>
+    <tableColumn id="16" name="Segment ID_FV2310"/>
+    <tableColumn id="17" name="Code_FV2310"/>
+    <tableColumn id="18" name="Qualifier_FV2310"/>
+    <tableColumn id="19" name="Beschreibung_FV2310"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="21" name="Bedingung_FV2310"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1085,7 +1115,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5706,5 +5739,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2310_FV2304/MSCONS/13013.xlsx
+++ b/data/output/FV2310_FV2304/MSCONS/13013.xlsx
@@ -1545,7 +1545,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N15" s="2"/>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N26" s="2"/>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N30" s="2"/>
@@ -3077,7 +3077,7 @@
         <v>221</v>
       </c>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3269,7 +3269,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -3659,7 +3659,7 @@
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -3955,7 +3955,7 @@
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -4797,7 +4797,7 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N69" s="2"/>
@@ -4887,7 +4887,7 @@
         <v>225</v>
       </c>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -5023,7 +5023,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -5413,7 +5413,7 @@
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -5751,7 +5751,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -5941,7 +5941,7 @@
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="K97" s="2"/>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N97" s="2"/>
@@ -6269,7 +6269,7 @@
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N100" s="2"/>
